--- a/medicine/Enfance/Manneken-Pis_de_Broxeele/Manneken-Pis_de_Broxeele.xlsx
+++ b/medicine/Enfance/Manneken-Pis_de_Broxeele/Manneken-Pis_de_Broxeele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Manneken-Pis de Broxeele est une copie officielle du Manneken-Pis de Bruxelles. 
-Broxeele et Bruxelles ayant la même étymologie[1],la ville de Bruxelles[2] et l'ordre des amis du Manneken-Pis[1] décide donc en 1979 de faire don d'une réplique du Manneken-Pis au petit Broxeele[1]. En 1980, il a été placé sur une colonne de briques[1]. L'installation s'est accompagnée de quelques festivités, au cours desquelles l'Ordre des Amis du Manneken-Pis a également fait le déplacement depuis Bruxelles. En 2011, la statue a été remplacée[2] et déplacée pour être placée devant la mairie[1].
-Il possède un costume de paysan[2].
+Broxeele et Bruxelles ayant la même étymologie,la ville de Bruxelles et l'ordre des amis du Manneken-Pis décide donc en 1979 de faire don d'une réplique du Manneken-Pis au petit Broxeele. En 1980, il a été placé sur une colonne de briques. L'installation s'est accompagnée de quelques festivités, au cours desquelles l'Ordre des Amis du Manneken-Pis a également fait le déplacement depuis Bruxelles. En 2011, la statue a été remplacée et déplacée pour être placée devant la mairie.
+Il possède un costume de paysan.
 </t>
         </is>
       </c>
